--- a/data/trans_dic/P31_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P31_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva)</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 18,71</t>
+          <t>9,88; 21,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 21,9</t>
+          <t>9,6; 20,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 30,34</t>
+          <t>13,01; 38,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,55; 22,88</t>
+          <t>7,62; 18,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,58; 31,53</t>
+          <t>13,03; 23,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,02; 28,69</t>
+          <t>18,81; 31,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,62</t>
+          <t>15,93; 28,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,75</t>
+          <t>13,21; 25,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 26,61</t>
+          <t>12,95; 21,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 24,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 30,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 20,17</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 30,28</t>
+          <t>9,61; 22,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 30,24</t>
+          <t>16,74; 30,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,85</t>
+          <t>13,05; 26,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 33,34</t>
+          <t>8,36; 20,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,94; 43,73</t>
+          <t>19,39; 33,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,85; 39,23</t>
+          <t>28,47; 43,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 28,65</t>
+          <t>27,43; 43,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,86; 34,77</t>
+          <t>24,92; 46,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,9; 29,8</t>
+          <t>16,0; 25,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23,81; 34,37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 32,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 32,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 49,91</t>
+          <t>11,43; 72,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 49,49</t>
+          <t>6,46; 68,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 23,3</t>
+          <t>0,0; 12,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 38,76</t>
+          <t>4,18; 33,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,36; 52,2</t>
+          <t>14,58; 43,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 53,64</t>
+          <t>27,91; 60,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 40,89</t>
+          <t>18,45; 48,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,74; 44,46</t>
+          <t>18,15; 48,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 33,65</t>
+          <t>19,86; 59,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 56,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,67; 27,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 34,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,14; 22,92</t>
+          <t>13,05; 26,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,43</t>
+          <t>14,71; 26,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,36</t>
+          <t>13,28; 28,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,51; 26,21</t>
+          <t>9,5; 17,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,09; 35,67</t>
+          <t>17,95; 26,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,32</t>
+          <t>25,83; 35,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 23,07</t>
+          <t>23,28; 33,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,66; 29,12</t>
+          <t>20,57; 32,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,62</t>
+          <t>16,76; 23,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 29,21</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 27,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 23,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64702</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53296</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>81439</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66747</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>92067</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>103259</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>85223</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>104119</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>156769</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>156555</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>166662</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>170866</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42493; 93338</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35151; 74277</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49557; 147097</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39325; 97303</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66310; 120699</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79208; 131029</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64923; 114152</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74433; 141865</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>121547; 198655</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>123445; 191975</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>129058; 237021</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>128372; 217786</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53207</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72673</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>62024</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56926</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107442</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118402</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>116302</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>141090</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>160649</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>191074</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>178326</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>198016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34535; 80274</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53293; 97771</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42094; 86670</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34466; 82883</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>82495; 140496</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>96331; 146282</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>91882; 145157</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>107945; 201052</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>125542; 201569</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>156392; 225741</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>142902; 215959</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>156020; 270590</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38839</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23592</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2085</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17195</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27612</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35484</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26462</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34638</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66451</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>59076</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51833</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11636; 73793</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5139; 54229</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10573</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4990; 40284</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14750; 43993</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22763; 49058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15230; 39738</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20210; 53562</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40311; 120659</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37824; 90673</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14584; 46964</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29476; 79443</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>156748</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149561</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>145548</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>140868</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>227121</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>257144</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>227987</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>279846</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>383869</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>406706</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>373535</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>420715</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>116297; 233124</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112366; 201051</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>104779; 224705</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>99497; 185599</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>185797; 272976</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>217211; 296764</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>192052; 272682</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>227956; 356012</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>322888; 459596</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>354406; 468793</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>316297; 441984</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>352523; 510466</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
